--- a/input/products.xlsx
+++ b/input/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\Data Science\contax-sa\invoice-app\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1345E7-C58B-4D1A-A14A-2DEB0B28D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B181A0-CEF0-44B9-84C3-66541DC8B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1248,12 +1248,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
